--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/85.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/85.xlsx
@@ -479,13 +479,13 @@
         <v>-13.38561025227456</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69273519843076</v>
+        <v>-10.69240789085972</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.030821635841189</v>
+        <v>-4.010947520127448</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.777534402823951</v>
+        <v>-6.804203423712547</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.25968093010682</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05041691206672</v>
+        <v>-11.05048237358093</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.07634357282187</v>
+        <v>-4.05245012013572</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.786332430333591</v>
+        <v>-6.809243960306611</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.85960040620665</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88439660308467</v>
+        <v>-11.8835586957028</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.826071111699435</v>
+        <v>-3.805215073272565</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.619562676735685</v>
+        <v>-6.642578945131438</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.338593428334589</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73569741076223</v>
+        <v>-12.73766125618848</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.919235938721158</v>
+        <v>-3.892566917832561</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.961481257750203</v>
+        <v>-6.98778369415923</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.697234434780606</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.44858639279705</v>
+        <v>-13.45339126793997</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.672943537662607</v>
+        <v>-3.646955316521781</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.524656573436012</v>
+        <v>-6.547162242020939</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.003747343268337</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.13913990618389</v>
+        <v>-14.14425899659501</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.729528470544547</v>
+        <v>-3.700555204355807</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.697003648044494</v>
+        <v>-6.719168916755536</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.274245124854771</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.75358786315178</v>
+        <v>-14.76161344479376</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.550818536754986</v>
+        <v>-3.52498742324826</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.388077670191126</v>
+        <v>-6.403330203001737</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.553684620006748</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.66638321727692</v>
+        <v>-15.67502413715246</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.395439086629381</v>
+        <v>-3.368468942775425</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.178469901695092</v>
+        <v>-6.18505533002448</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.85403460454115</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.31801331431531</v>
+        <v>-16.32674588031074</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.386051905491863</v>
+        <v>-3.357327393057116</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.743347216750325</v>
+        <v>-5.751752475174714</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.795390840285373</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.85068674773378</v>
+        <v>-16.86550723455061</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.238462375557086</v>
+        <v>-3.212081385331008</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.510395872287494</v>
+        <v>-5.51976996112217</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>2.378239526222787</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.47587039303188</v>
+        <v>-17.48866157290825</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.357078639303124</v>
+        <v>-3.335240678163125</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.913701077972986</v>
+        <v>-4.923572674315648</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>3.877413732180584</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.37120061516616</v>
+        <v>-18.38242071870152</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.135700890552378</v>
+        <v>-3.113299960390184</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.268119624847474</v>
+        <v>-4.276865283145747</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>5.265857161805619</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.10292942099023</v>
+        <v>-19.10955412622814</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.019087749141123</v>
+        <v>-2.996503526739146</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.705307710287354</v>
+        <v>-3.720966104486058</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>6.534236825117234</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.86279358562117</v>
+        <v>-19.87443264284747</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.945927960861558</v>
+        <v>-2.922113061992458</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.10825942379612</v>
+        <v>-3.123472679698205</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>7.661133751072353</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.7190432837729</v>
+        <v>-20.73546103153642</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.940376824456666</v>
+        <v>-2.913027003820301</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.499349510930282</v>
+        <v>-2.521999194846468</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>8.645719804988122</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.4322072041674</v>
+        <v>-21.44994727451794</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.861129115355698</v>
+        <v>-2.833805479325016</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.07904731280235</v>
+        <v>-2.101408966056018</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>9.475424969486223</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.33896700668251</v>
+        <v>-22.3586709224593</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.766537227324227</v>
+        <v>-2.737616330346855</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.85422628840423</v>
+        <v>-1.872149650994553</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>10.15270770328931</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.18152215606179</v>
+        <v>-23.20186759467783</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.778307207578939</v>
+        <v>-2.751886940444336</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.380703879224682</v>
+        <v>-1.405409054687019</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>10.66626775925597</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.98211647483334</v>
+        <v>-24.00085156019984</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.555292920972978</v>
+        <v>-2.529998591882763</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.146574227506094</v>
+        <v>-1.167102958361921</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>11.01802724267214</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.43203346198925</v>
+        <v>-24.45324299259285</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.394676549710682</v>
+        <v>-2.370481974059172</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.756057018343089</v>
+        <v>-0.7767428568330162</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>11.20088997893221</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.09477892414027</v>
+        <v>-25.11587062401829</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.183196581908281</v>
+        <v>-2.162510743418354</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6116751026045339</v>
+        <v>-0.6229999445626271</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>11.22060298294929</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.6645297592065</v>
+        <v>-25.68487519782255</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.17788110695454</v>
+        <v>-2.157692775972599</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2347346114883987</v>
+        <v>-0.2519509897252685</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>11.08211579378676</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.10295170446738</v>
+        <v>-26.12308766623796</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.122147173757312</v>
+        <v>-2.105245010788644</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2778868416547279</v>
+        <v>-0.2922752824777848</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>10.80272284784176</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.37884580225108</v>
+        <v>-26.39919124086712</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.773630072110564</v>
+        <v>-1.757578908826608</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2592041254995848</v>
+        <v>-0.2716810901077497</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>10.40272715099243</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.2957358638118</v>
+        <v>-26.31745599422622</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.67241347884118</v>
+        <v>-1.659569929753447</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4187076510203335</v>
+        <v>-0.4310798772057646</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>9.907951158705504</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.21496944758119</v>
+        <v>-26.24354994468468</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.745900574691788</v>
+        <v>-1.733894932985926</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3786975735360186</v>
+        <v>-0.3858852477961262</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>9.350370249539511</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.38317935449169</v>
+        <v>-26.40707280717784</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.46306755640198</v>
+        <v>-1.450865530153491</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7138736185870477</v>
+        <v>-0.7200924624368675</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>8.754916104226943</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.29769970923806</v>
+        <v>-26.32703955990637</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.372756851399754</v>
+        <v>-1.363618424016229</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.787125052986505</v>
+        <v>-0.7914455129242747</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>8.157438759608285</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.11117367065199</v>
+        <v>-26.13779032232922</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.452436606494499</v>
+        <v>-1.443337456019499</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9291503542135494</v>
+        <v>-0.9321615838671464</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>7.571940228840966</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.77429562623153</v>
+        <v>-25.79979943216722</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.365006208117452</v>
+        <v>-1.356561672784539</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.412478898221551</v>
+        <v>-1.413722666991515</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>7.027144020353715</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.79021586648707</v>
+        <v>-25.81882254819624</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.196861762721164</v>
+        <v>-1.189988303729258</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.705170420551179</v>
+        <v>-1.709936018785567</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>6.52505165048722</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.43993130395669</v>
+        <v>-25.46716329386748</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.167089866059079</v>
+        <v>-1.161695837288288</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.206081927275618</v>
+        <v>-2.21231386342828</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.077171704197799</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.89182204548783</v>
+        <v>-24.91366000662783</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.187540043097855</v>
+        <v>-1.183703998365229</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.311134565277628</v>
+        <v>-2.31532410218698</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.67638750622926</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.47720190679321</v>
+        <v>-24.50207728219249</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.354951319535006</v>
+        <v>-1.351612782310366</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522300317811828</v>
+        <v>-2.522614533080029</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.318205687699803</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.82824263953453</v>
+        <v>-23.85098396957061</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.354257427484395</v>
+        <v>-1.350709413414287</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.714953554127827</v>
+        <v>-2.710515263464482</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>4.992954927275666</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.06866650556611</v>
+        <v>-23.0895618209015</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.334527327101914</v>
+        <v>-1.332550389372813</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.845955136362138</v>
+        <v>-2.846701397624116</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>4.687373258193225</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.68635817028487</v>
+        <v>-22.70436008669224</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.410645975823709</v>
+        <v>-1.407713299987162</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.157146082607125</v>
+        <v>-3.160720281282916</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>4.397350432336184</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.04737523779158</v>
+        <v>-22.07252555155054</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.322691885332993</v>
+        <v>-1.317022918202526</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.385763874829345</v>
+        <v>-3.39012361167564</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>4.10933395187477</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.55947748009182</v>
+        <v>-21.58447068621667</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.490954161454857</v>
+        <v>-1.484656763787986</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.61698703531707</v>
+        <v>-3.621425325980415</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>3.826441889373766</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.10578990971749</v>
+        <v>-21.11731113621821</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.404191470522738</v>
+        <v>-1.394555535631228</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.620155372604767</v>
+        <v>-3.623520094435091</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>3.540587643806756</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.27860512387439</v>
+        <v>-20.30040380810587</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.130248125862462</v>
+        <v>-1.119368422200987</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.730183085686633</v>
+        <v>-3.735786591302892</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>3.257041299001204</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.45881748913687</v>
+        <v>-19.47239420718374</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.138260615201598</v>
+        <v>-1.127891511350951</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.869629203253858</v>
+        <v>-3.874237693854145</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.972106457631183</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.0336711389575</v>
+        <v>-19.04830833353455</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.158880992177317</v>
+        <v>-1.146953904288504</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.095170304308272</v>
+        <v>-4.101127302101258</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>2.687177638681903</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.54672911936518</v>
+        <v>-18.55703276170162</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.148001288515842</v>
+        <v>-1.136610985043541</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.208078324015318</v>
+        <v>-4.212019107170677</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>2.398127657676716</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.09334267195621</v>
+        <v>-18.09855340848722</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.111958178792571</v>
+        <v>-1.100895182891312</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.345756980698909</v>
+        <v>-4.344919073317039</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>2.102044254927294</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.33074221603135</v>
+        <v>-17.33971044347793</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.204730236729041</v>
+        <v>-1.191664118492999</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.65159317508163</v>
+        <v>-4.654512758615335</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.794625971006144</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.48518892930131</v>
+        <v>-16.49621264829405</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.130261218165304</v>
+        <v>-1.118046099613973</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.602915993116093</v>
+        <v>-4.601816239677388</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.469850286558772</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85505639352904</v>
+        <v>-15.85809380778832</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.07766943765009</v>
+        <v>-1.060570890138796</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.832044385149141</v>
+        <v>-4.834047507483925</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.125483496902449</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.97084153650738</v>
+        <v>-14.97953482559429</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.03549913019689</v>
+        <v>-1.021032135556783</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954575247444855</v>
+        <v>-4.954837093501689</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.7564243303103351</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.17715995363627</v>
+        <v>-14.18341807439461</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.036114468430451</v>
+        <v>-1.022131888995488</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.137828210320495</v>
+        <v>-5.139621855809811</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3646352841988287</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.46043492686881</v>
+        <v>-13.47505902914302</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9825014882935832</v>
+        <v>-0.9674715246312816</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.037410247524456</v>
+        <v>-5.041220107651398</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.05258873610563237</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.7623271547423</v>
+        <v>-12.77518379613287</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.978351228292756</v>
+        <v>-0.9612134038729365</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.117639879338554</v>
+        <v>-5.12065110899215</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4908127573281512</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.39796836665706</v>
+        <v>-12.409057547164</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.175560585997676</v>
+        <v>-1.158854807571633</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.287800539372467</v>
+        <v>-5.291688953316459</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.9514998436632</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.72114867895119</v>
+        <v>-11.7283363532113</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.264679891441305</v>
+        <v>-1.247110021027709</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.767489423190468</v>
+        <v>-5.770055514547447</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.427080868266358</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.29807091262081</v>
+        <v>-11.3057560943889</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.278937409235945</v>
+        <v>-1.260149954658068</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.900572681576614</v>
+        <v>-5.902811465362549</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.916014657735169</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.52435509158333</v>
+        <v>-10.53100598142692</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.267756582609111</v>
+        <v>-1.248798928094291</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.356302651194256</v>
+        <v>-6.359719742235947</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.408926987578034</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.05219428189932</v>
+        <v>-10.06465815420464</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.470176676845038</v>
+        <v>-1.449464653749427</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.199836539932789</v>
+        <v>-6.206081568388291</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.900599767868431</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.485795076360564</v>
+        <v>-9.494147965573585</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.459205327063671</v>
+        <v>-1.439226472927197</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.424133872217239</v>
+        <v>-6.43134773108303</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.382375703569773</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.196494460466942</v>
+        <v>-9.206562441352229</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.537510390360035</v>
+        <v>-1.518840766507733</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.305321223928575</v>
+        <v>-6.31476077427746</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.845402177628121</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.563036479772869</v>
+        <v>-8.578904350817041</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.621327313152765</v>
+        <v>-1.599436982801399</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.71729671744917</v>
+        <v>-6.720609070068126</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.283635343673686</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.989397230762641</v>
+        <v>-8.006076824582999</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.536999790549207</v>
+        <v>-1.517741013069028</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.583022059504427</v>
+        <v>-6.588599380515002</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.687524576743109</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.527238940449711</v>
+        <v>-7.542439104048955</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.52791373237705</v>
+        <v>-1.504805817861403</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.64835265068464</v>
+        <v>-6.655920001727157</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.055175544361944</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.108193603394585</v>
+        <v>-7.128656872736203</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.669428433793267</v>
+        <v>-1.647367903504958</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.825138015956467</v>
+        <v>-6.831396136714812</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.378301683929443</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.678949362425754</v>
+        <v>-6.698784201230969</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.553221153770106</v>
+        <v>-1.532247284617661</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.005327379967142</v>
+        <v>-7.005720149052395</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.659678632141164</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.439281666605116</v>
+        <v>-6.456969367744288</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.711494002823732</v>
+        <v>-1.691973379286719</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.035609876440056</v>
+        <v>-7.038162875494192</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.89235896956145</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.303488301530733</v>
+        <v>-6.324161047717819</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.702381760045891</v>
+        <v>-1.683044428748662</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.089327594999657</v>
+        <v>-7.094080100931204</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.080040402748315</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.028144080466393</v>
+        <v>-6.049078672710313</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.630321725205031</v>
+        <v>-1.6161296689246</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.04770716426581</v>
+        <v>-7.049016394549983</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.21825570379874</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.93186328536834</v>
+        <v>-5.954434415467475</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.912395389930019</v>
+        <v>-1.895702703806818</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.083396781812356</v>
+        <v>-7.082794535881636</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.309820895064855</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.828250800678919</v>
+        <v>-5.853767698917443</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.860248747711424</v>
+        <v>-1.845244968654806</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.822755216839273</v>
+        <v>-6.823671678038194</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.354799575225672</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.564859852109074</v>
+        <v>-5.592026380505655</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.873602896609984</v>
+        <v>-1.859502486449446</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.729551112909025</v>
+        <v>-6.728045498082227</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.355694818472699</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.65175346606961</v>
+        <v>-5.682716762290292</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.954618066594585</v>
+        <v>-1.94062239485678</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.548091795522701</v>
+        <v>-6.544465227635544</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.317956796555782</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.723460008733744</v>
+        <v>-5.754567320285685</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.042048464971632</v>
+        <v>-2.02830154698782</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.381178026593536</v>
+        <v>-6.378297719968356</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.2437375498324</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.926547810414598</v>
+        <v>-5.956214968653949</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.903217685637969</v>
+        <v>-1.889614782985416</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.28298575528059</v>
+        <v>-6.274960173638612</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.142517159148747</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.07689981624898</v>
+        <v>-6.109041419725418</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.158609237171519</v>
+        <v>-2.1487507331317</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.137949224399949</v>
+        <v>-6.130617534808582</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.013294635892535</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.55543657741691</v>
+        <v>-6.588114965309858</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.143356704360909</v>
+        <v>-2.130081109279398</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.90448728012629</v>
+        <v>-5.894340745423952</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.866667911910414</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.022491388992646</v>
+        <v>-7.050574378588149</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.194573793077741</v>
+        <v>-2.182384859132094</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.958440660137043</v>
+        <v>-5.950349616980856</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.700024803023244</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.507037517164927</v>
+        <v>-7.535460906634315</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.146813072311124</v>
+        <v>-2.132843585179002</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.587404797602527</v>
+        <v>-5.578266370219001</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.520884584919378</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.905397015730126</v>
+        <v>-7.931332867659586</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.177265768720979</v>
+        <v>-2.167695295343677</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.42617308810667</v>
+        <v>-5.41699538381462</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.326247442958648</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.281853091641118</v>
+        <v>-8.310040819659354</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.444453485114924</v>
+        <v>-2.433652335270501</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.031885295725248</v>
+        <v>-5.02385971408327</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.118126621536734</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.190655293399534</v>
+        <v>-9.216054360912482</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.370246312608021</v>
+        <v>-2.358266855507842</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.028769327648916</v>
+        <v>-5.017968177804493</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.893893256329714</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.928485112347847</v>
+        <v>-9.950139781248062</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.460255894644888</v>
+        <v>-2.447922945367982</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.858791959854787</v>
+        <v>-4.848147917644464</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.650896939947282</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.68465724757742</v>
+        <v>-10.70447899407979</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.520847072196396</v>
+        <v>-2.514772243677835</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.533579157266312</v>
+        <v>-4.522044838462751</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.387974874123937</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.8235043025678</v>
+        <v>-11.84468764856572</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.604755641109019</v>
+        <v>-2.596062352022112</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.42889310374387</v>
+        <v>-4.416547062164122</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.099027066241872</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.63847396985957</v>
+        <v>-12.65862302393298</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.747579572809408</v>
+        <v>-2.738977929842394</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.065817361337123</v>
+        <v>-4.051821689599318</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.785032752648819</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.66959755706823</v>
+        <v>-13.69172354887075</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.843218845068217</v>
+        <v>-2.835127801912031</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.745029757109151</v>
+        <v>-3.735302176097748</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.439435677517006</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.66779400262995</v>
+        <v>-14.68942248692448</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.87683987876577</v>
+        <v>-2.869743850625554</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.297220630710752</v>
+        <v>-3.284966235250896</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.067263393237015</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.03584800347043</v>
+        <v>-16.05271088953058</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.785547251050414</v>
+        <v>-2.774628270480414</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.046751785045691</v>
+        <v>-3.034929435579612</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.666800932225539</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.45714839996822</v>
+        <v>-17.47707488489332</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.021536009772526</v>
+        <v>-3.014570904660728</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.775819670039011</v>
+        <v>-2.766524135021386</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.245982774136568</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.92827810108161</v>
+        <v>-18.94753687856178</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.220355720726978</v>
+        <v>-3.212055200725324</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.648366101874808</v>
+        <v>-2.641505735185744</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.808663241351315</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.55836145099639</v>
+        <v>-20.57360089150416</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.432660503608408</v>
+        <v>-3.421466584678732</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.705985326681244</v>
+        <v>-2.702437312611137</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.364534733080835</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.03374615053335</v>
+        <v>-22.0502686367196</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.439206655029271</v>
+        <v>-3.433838810864164</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.598654627984774</v>
+        <v>-2.591938276626969</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.9208948829969709</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.02528179730251</v>
+        <v>-24.04213159105981</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.657730281760521</v>
+        <v>-3.644048825290917</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.568647069871538</v>
+        <v>-2.563344687220639</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4862254571454875</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.1963652852431</v>
+        <v>-26.21176183338497</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.46164686209999</v>
+        <v>-3.449457928154343</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.727378149524625</v>
+        <v>-2.720426136715668</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06798913644687038</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.37073494119696</v>
+        <v>-28.3869039352065</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.966551521191156</v>
+        <v>-3.951364449894753</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.944252146097817</v>
+        <v>-2.941371839472637</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.3307288682525391</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.41172021579932</v>
+        <v>-30.43164670072443</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.947593866676336</v>
+        <v>-3.932367518471409</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.277804745596472</v>
+        <v>-3.274819700548559</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.7032478420982329</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.67692426886909</v>
+        <v>-32.69939066054549</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.100145379388128</v>
+        <v>-4.088309937619208</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.362014437474454</v>
+        <v>-3.359003207820857</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>1.049490091494914</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.18097120268045</v>
+        <v>-35.2007536722743</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.381093106068728</v>
+        <v>-4.366207157737685</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.78386152733771</v>
+        <v>-3.783350927526883</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.363865000096929</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.58230902069848</v>
+        <v>-37.60101792145931</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.234276022001612</v>
+        <v>-4.222833349317943</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.179065780918053</v>
+        <v>-4.175164274671219</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.6472476609308</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.20560064879229</v>
+        <v>-40.22324907302294</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.355052515716535</v>
+        <v>-4.342326797354377</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.429809564942791</v>
+        <v>-4.425868781787432</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.893696761421032</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.64672597514632</v>
+        <v>-42.663379384361</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.510222488996672</v>
+        <v>-4.49745749372599</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.94239940580205</v>
+        <v>-4.936246023466438</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.104546222821723</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.01162791435583</v>
+        <v>-45.02998332293993</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.598582440875481</v>
+        <v>-4.586786276015086</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.143929223444739</v>
+        <v>-5.142017747229847</v>
       </c>
     </row>
   </sheetData>
